--- a/python/errors.xlsx
+++ b/python/errors.xlsx
@@ -13,10 +13,131 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+  <si>
+    <t>{'head': 'startup name: CoachHub', 'type': 'receives', 'tail': 'amount of money: €25 million'}</t>
+  </si>
+  <si>
+    <t>{'head': 'CoachHub', 'type': 'RECEIVES', 'tail': '€25 million'}</t>
+  </si>
+  <si>
+    <t>{'head': 'investors: Draper Esprit', 'type': 'HV Capital', 'tail': 'Partech'}</t>
+  </si>
+  <si>
+    <t>{'head': 'Draper Esprit', 'type': 'INVESTS', 'tail': '€25 million'}</t>
+  </si>
+  <si>
+    <t>{'head': 'amount of money: €25 million', 'type': 'roundofinvestment', 'tail': 'funding round: series B'}</t>
+  </si>
+  <si>
+    <t>{'head': 'HV Capital', 'type': 'INVESTS', 'tail': '€25 million'}</t>
+  </si>
+  <si>
+    <t>{'head': 'startup name: CoachHub', 'type': 'received in total', 'tail': 'amount of money: €40 million'}</t>
+  </si>
+  <si>
+    <t>{'head': 'Partech', 'type': 'INVESTS', 'tail': '€25 million'}</t>
+  </si>
+  <si>
+    <t>{'head': 'startup name: Userlane', 'type': 'receives', 'tail': 'amount of money: €4 million'}</t>
+  </si>
+  <si>
+    <t>{'head': 'Speedinvest', 'type': 'INVESTS', 'tail': '€25 million'}</t>
+  </si>
+  <si>
+    <t>{'head': 'investors: Capnamic Ventures', 'type': 'High Tech Gründerfonds', 'tail': 'main incubator'}</t>
+  </si>
+  <si>
+    <t>{'head': 'signals Venture Capital', 'type': 'INVESTS', 'tail': '€25 million'}</t>
+  </si>
+  <si>
+    <t>{'head': 'amount of money: €4 million', 'type': 'roundofinvestment', 'tail': 'funding round: series A'}</t>
+  </si>
+  <si>
+    <t>{'head': 'RTP Global', 'type': 'INVESTS', 'tail': '€25 million'}</t>
+  </si>
+  <si>
+    <t>{'head': 'startup name: XXX', 'type': 'received in total', 'tail': 'amount of money: XXX'}</t>
+  </si>
+  <si>
+    <t>{'head': 'startup name: Igyxos', 'type': 'receives', 'tail': 'amount of money: €7.5 million'}</t>
+  </si>
+  <si>
+    <t>{'head': 'investors: Bpifrance', 'type': 'Go Capital', 'tail': 'Sofimac Innovation'}</t>
+  </si>
+  <si>
+    <t>{'head': 'amount of money: €7.5 million', 'type': 'roundofinvestment', 'tail': 'funding round: series A'}</t>
+  </si>
+  <si>
+    <t>{'head': 'startup name: XXX', 'type': 'received in total', 'tail': 'amount of money: €2.8 million'}</t>
+  </si>
+  <si>
+    <t>{'head': 'startup name: Masterplan.com', 'type': 'receives', 'tail': 'amount of money: €13 million'}</t>
+  </si>
+  <si>
+    <t>{'head': 'investors: existing investors', 'type': 'invest', 'tail': 'amount of money: €13 million'}</t>
+  </si>
+  <si>
+    <t>{'head': 'amount of money: €13 million', 'type': 'roundofinvestment', 'tail': 'funding round: XXX'}</t>
+  </si>
+  <si>
+    <t>{'head': 'startup name: Blacklane', 'type': 'receives', 'tail': 'amount of money: mid-seven-digit'}</t>
+  </si>
+  <si>
+    <t>{'head': 'investors: Recruit Holdings Co.', 'type': 'invest', 'tail': 'amount of money: mid-seven-digit'}</t>
+  </si>
+  <si>
+    <t>{'head': 'amount of money: mid-seven-digit', 'type': 'roundofinvestment', 'tail': 'funding round: XXX'}</t>
+  </si>
+  <si>
+    <t>{'head': 'startup name: Blacklane', 'type': 'valuation at', 'tail': 'amount of money: nine-figure Euro range'}</t>
+  </si>
+  <si>
+    <t>{'head': 'startup name: Goodlord', 'type': 'receives', 'tail': 'amount of money: €7 million'}</t>
+  </si>
+  <si>
+    <t>{'head': 'investors: Finch Capital', 'type': 'Rocket Internet', 'tail': 'angel investors'}</t>
+  </si>
+  <si>
+    <t>{'head': 'amount of money: €7 million', 'type': 'roundofinvestment', 'tail': 'funding round: Series B'}</t>
+  </si>
+  <si>
+    <t>{'head': 'startup name: Goodlord', 'type': 'received in total', 'tail': 'amount of money: €14 million'}</t>
+  </si>
+  <si>
+    <t>{'head': 'startup name: Trustmary', 'type': 'received total', 'tail': 'amount of money: €1.86 million'}</t>
+  </si>
+  <si>
+    <t>{'head': 'amount of money: €1.15 million', 'type': 'has investment part', 'tail': 'amount of money: €1.15 million'}</t>
+  </si>
+  <si>
+    <t>{'head': 'amount of money: €751k', 'type': 'has investment part', 'tail': 'amount of money: €751k'}</t>
+  </si>
+  <si>
+    <t>{'head': 'investors: Vendep Capital', 'type': 'invest part', 'tail': 'amount of money: €1.15 million'}</t>
+  </si>
+  <si>
+    <t>{'head': 'investors: Business Finland', 'type': 'invest part', 'tail': 'amount of money: €751k'}</t>
+  </si>
+  <si>
+    <t>{'head': 'amount of money: €1.86 million', 'type': '', 'tail': 'funding round: XXX'}</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -32,7 +153,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,12 +161,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -340,12 +479,326 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AC5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:29">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>23</v>
+      </c>
+      <c r="R3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S3" t="s">
+        <v>25</v>
+      </c>
+      <c r="T3" t="s">
+        <v>26</v>
+      </c>
+      <c r="U3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V3" t="s">
+        <v>28</v>
+      </c>
+      <c r="W3" t="s">
+        <v>29</v>
+      </c>
+      <c r="X3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/python/errors.xlsx
+++ b/python/errors.xlsx
@@ -14,48 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>{'head': 'CoachHub', 'type': 'receives', 'tail': '€25 million'}</t>
+    <t>{'head': '€2.6 million', 'type': 'roundofinvestment', 'tail': 'Seed'}</t>
   </si>
   <si>
-    <t>{'head': 'CoachHub', 'type': 'RECEIVES', 'tail': '€25 million'}</t>
-  </si>
-  <si>
-    <t>{'head': 'Draper Esprit', 'type': 'invests', 'tail': '€25 million'}</t>
-  </si>
-  <si>
-    <t>{'head': 'Draper Esprit', 'type': 'INVESTS', 'tail': '€25 million'}</t>
-  </si>
-  <si>
-    <t>{'head': 'HV Capital', 'type': 'invests', 'tail': '€25 million'}</t>
-  </si>
-  <si>
-    <t>{'head': 'HV Capital', 'type': 'INVESTS', 'tail': '€25 million'}</t>
-  </si>
-  <si>
-    <t>{'head': 'Partech', 'type': 'invests', 'tail': '€25 million'}</t>
-  </si>
-  <si>
-    <t>{'head': 'Partech', 'type': 'INVESTS', 'tail': '€25 million'}</t>
-  </si>
-  <si>
-    <t>{'head': 'Speedinvest', 'type': 'invests', 'tail': '€25 million'}</t>
-  </si>
-  <si>
-    <t>{'head': 'Speedinvest', 'type': 'INVESTS', 'tail': '€25 million'}</t>
-  </si>
-  <si>
-    <t>{'head': 'signals Venture Capital', 'type': 'invests', 'tail': '€25 million'}</t>
-  </si>
-  <si>
-    <t>{'head': 'signals Venture Capital', 'type': 'INVESTS', 'tail': '€25 million'}</t>
-  </si>
-  <si>
-    <t>{'head': 'RTP Global', 'type': 'invests', 'tail': '€25 million'}</t>
-  </si>
-  <si>
-    <t>{'head': 'RTP Global', 'type': 'INVESTS', 'tail': '€25 million'}</t>
+    <t>{'head': '€2.6 million', 'type': '', 'tail': 'seed funding round'}</t>
   </si>
 </sst>
 </file>
@@ -413,125 +377,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:1">
       <c r="A1" s="1">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1">
-        <v>6</v>
-      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:1">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:1">
       <c r="A4">
         <v>0</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/python/errors.xlsx
+++ b/python/errors.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>{'head': '€2.6 million', 'type': 'roundofinvestment', 'tail': 'Seed'}</t>
+    <t>{'head': '€2.6 million', 'type': '', 'tail': 'seed funding round'}</t>
   </si>
   <si>
-    <t>{'head': '€2.6 million', 'type': '', 'tail': 'seed funding round'}</t>
+    <t>{'head': 'BetterUp', 'type': 'receives', 'tail': '$103 million'}</t>
+  </si>
+  <si>
+    <t>{'head': '$103 million', 'type': '', 'tail': 'Series C.'}</t>
   </si>
 </sst>
 </file>
@@ -377,35 +380,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" s="1">
         <v>0</v>
       </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>0</v>
       </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
         <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/python/errors.xlsx
+++ b/python/errors.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>{'head': '€2.6 million', 'type': 'roundofinvestment', 'tail': 'Seed'}</t>
+  </si>
   <si>
     <t>{'head': '€2.6 million', 'type': '', 'tail': 'seed funding round'}</t>
   </si>
@@ -397,6 +400,16 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="4" spans="1:3">
       <c r="A4">
         <v>0</v>
@@ -410,13 +423,13 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/python/errors.xlsx
+++ b/python/errors.xlsx
@@ -14,18 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>{'head': '€2.6 million', 'type': 'roundofinvestment', 'tail': 'Seed'}</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>{'head': '€2.6 million', 'type': '', 'tail': 'seed funding round'}</t>
-  </si>
-  <si>
-    <t>{'head': 'BetterUp', 'type': 'receives', 'tail': '$103 million'}</t>
-  </si>
-  <si>
-    <t>{'head': '$103 million', 'type': '', 'tail': 'Series C.'}</t>
   </si>
 </sst>
 </file>
@@ -383,53 +374,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:1">
       <c r="A1" s="1">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1">
-        <v>2</v>
-      </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
+    <row r="4" spans="1:1">
+      <c r="A4">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/python/errors.xlsx
+++ b/python/errors.xlsx
@@ -14,9 +14,75 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="23">
+  <si>
+    <t>{'head': 'Dataships', 'type': 'receives', 'tail': '€2.6 million'}</t>
+  </si>
+  <si>
+    <t>{'head': 'ReceiptHero', 'type': 'receives', 'tail': '€2 million'}</t>
+  </si>
+  <si>
+    <t>{'head': 'Urban Innovation Fund', 'type': 'invests', 'tail': '€2.6 million'}</t>
+  </si>
+  <si>
+    <t>{'head': 'Lifeline Ventures', 'type': 'invests', 'tail': '€2 million'}</t>
+  </si>
+  <si>
+    <t>{'head': 'Lavrock Ventures', 'type': 'invests', 'tail': '€2.6 million'}</t>
+  </si>
+  <si>
+    <t>{'head': 'Superhero Capital', 'type': 'invests', 'tail': '€2 million'}</t>
+  </si>
+  <si>
+    <t>{'head': 'Tony Smurfit', 'type': 'invests', 'tail': '€2.6 million'}</t>
+  </si>
+  <si>
+    <t>{'head': 'Vidici Venture', 'type': 'invests', 'tail': '€2 million'}</t>
+  </si>
+  <si>
+    <t>{'head': 'Peter Crowley', 'type': 'invests', 'tail': '€2.6 million'}</t>
+  </si>
+  <si>
+    <t>{'head': '€2 million', 'type': '', 'tail': 'seed funding'}</t>
+  </si>
+  <si>
+    <t>{'head': 'NDRC', 'type': 'invests', 'tail': '€2.6 million'}</t>
+  </si>
+  <si>
+    <t>{'head': 'iAdvize', 'type': 'receives', 'tail': '€14 million'}</t>
+  </si>
+  <si>
+    <t>{'head': 'CoachHub', 'type': 'receives', 'tail': '€6 million'}</t>
+  </si>
+  <si>
+    <t>{'head': 'Iris Capital', 'type': 'invests', 'tail': '€14 million'}</t>
+  </si>
+  <si>
+    <t>{'head': 'HV Holtzbrinck Ventures', 'type': 'invests', 'tail': '€6 million'}</t>
+  </si>
+  <si>
+    <t>{'head': 'BPI France', 'type': 'invests', 'tail': '€14 million'}</t>
+  </si>
+  <si>
+    <t>{'head': 'Partech', 'type': 'invests', 'tail': '€6 million'}</t>
+  </si>
+  <si>
+    <t>{'head': 'Alven Capital', 'type': 'invests', 'tail': '€14 million'}</t>
+  </si>
+  <si>
+    <t>{'head': 'Speedinvest x', 'type': 'invests', 'tail': '€6 million'}</t>
+  </si>
   <si>
     <t>{'head': '€2.6 million', 'type': '', 'tail': 'seed funding round'}</t>
+  </si>
+  <si>
+    <t>{'head': 'Investors: Goldman Sachs', 'type': 'Aglaé Ventures', 'tail': 'Eurazeo Growth'}</t>
+  </si>
+  <si>
+    <t>{'head': 'BetterUp', 'type': 'receives', 'tail': '$103 million'}</t>
+  </si>
+  <si>
+    <t>{'head': '$103 million', 'type': '', 'tail': 'Series C.'}</t>
   </si>
 </sst>
 </file>
@@ -374,25 +440,332 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:22">
       <c r="A1" s="1">
         <v>0</v>
       </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1">
+        <v>21</v>
+      </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="2" spans="1:22">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>2</v>
+      </c>
+      <c r="M2">
+        <v>2</v>
+      </c>
+      <c r="N2">
+        <v>2</v>
+      </c>
+      <c r="O2">
+        <v>3</v>
+      </c>
+      <c r="P2">
+        <v>3</v>
+      </c>
+      <c r="Q2">
+        <v>3</v>
+      </c>
+      <c r="R2">
+        <v>3</v>
+      </c>
+      <c r="S2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R3" t="s">
+        <v>7</v>
+      </c>
+      <c r="S3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4">
         <v>0</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="P4">
+        <v>2</v>
+      </c>
+      <c r="Q4">
+        <v>3</v>
+      </c>
+      <c r="R4">
+        <v>3</v>
+      </c>
+      <c r="S4">
+        <v>3</v>
+      </c>
+      <c r="T4">
+        <v>3</v>
+      </c>
+      <c r="U4">
+        <v>3</v>
+      </c>
+      <c r="V4">
+        <v>3</v>
+      </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:22">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" t="s">
+        <v>8</v>
+      </c>
+      <c r="N5" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" t="s">
+        <v>2</v>
+      </c>
+      <c r="P5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>12</v>
+      </c>
+      <c r="R5" t="s">
+        <v>14</v>
+      </c>
+      <c r="S5" t="s">
+        <v>16</v>
+      </c>
+      <c r="T5" t="s">
+        <v>18</v>
+      </c>
+      <c r="U5" t="s">
+        <v>21</v>
+      </c>
+      <c r="V5" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/python/errors.xlsx
+++ b/python/errors.xlsx
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>{'head': '€2.6 million', 'type': '', 'tail': 'seed funding round'}</t>
+    <t>{'head': 'BetterUp', 'type': 'receives', 'tail': '$103 million'}</t>
+  </si>
+  <si>
+    <t>{'head': '$103 million', 'type': '', 'tail': 'Series C.'}</t>
   </si>
 </sst>
 </file>
@@ -374,25 +377,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" s="1">
         <v>0</v>
       </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>0</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/python/errors.xlsx
+++ b/python/errors.xlsx
@@ -14,12 +14,123 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
+  <si>
+    <t>{'head': 'iAdvize', 'type': 'receives', 'tail': '€14 million'}</t>
+  </si>
+  <si>
+    <t>{'head': 'ReceiptHero', 'type': 'receives', 'tail': '€2 million'}</t>
+  </si>
+  <si>
+    <t>{'head': 'Iris Capital', 'type': 'leads', 'tail': '€14 million funding round'}</t>
+  </si>
+  <si>
+    <t>{'head': 'Lifeline Ventures', 'type': 'invests', 'tail': '€2 million'}</t>
+  </si>
+  <si>
+    <t>{'head': 'BPI France', 'type': 'invests', 'tail': '€14 million'}</t>
+  </si>
+  <si>
+    <t>{'head': 'Superhero Capital', 'type': 'invests', 'tail': '€2 million'}</t>
+  </si>
+  <si>
+    <t>{'head': 'Alven Capital', 'type': 'invests', 'tail': '€14 million'}</t>
+  </si>
+  <si>
+    <t>{'head': 'Vidici Venture', 'type': 'invests', 'tail': '€2 million'}</t>
+  </si>
+  <si>
+    <t>{'head': '€14 million', 'type': 'roundofinvestment', 'tail': 'not specified'}</t>
+  </si>
+  <si>
+    <t>{'head': '€2 million', 'type': '', 'tail': 'seed funding'}</t>
+  </si>
+  <si>
+    <t>{'head': 'not specified', 'type': 'was received in', 'tail': 'not specified'}</t>
+  </si>
+  <si>
+    <t>{'head': 'Sophie Dingreville', 'type': 'joins', 'tail': 'iAdvize board'}</t>
+  </si>
+  <si>
+    <t>{'head': 'Iris Capital', 'type': 'invests', 'tail': '€14 million'}</t>
+  </si>
+  <si>
+    <t>{'head': '€2 million', 'type': 'roundofinvestment', 'tail': 'seed funding'}</t>
+  </si>
+  <si>
+    <t>{'head': 'Dataships', 'type': 'receives', 'tail': '€2.6 million'}</t>
+  </si>
+  <si>
+    <t>{'head': 'Lavrock Ventures', 'type': 'invests', 'tail': '€2.6 million'}</t>
+  </si>
+  <si>
+    <t>{'head': 'Tony Smurfit', 'type': 'invests', 'tail': '€2.6 million'}</t>
+  </si>
+  <si>
+    <t>{'head': 'ReceiptHero', 'type': 'founded', 'tail': 'late 2018'}</t>
+  </si>
+  <si>
+    <t>{'head': 'Peter Crowley', 'type': 'invests', 'tail': '€2.6 million'}</t>
+  </si>
+  <si>
+    <t>{'head': 'eTasku', 'type': '', 'tail': 'Accountor Group'}</t>
+  </si>
+  <si>
+    <t>{'head': 'NDRC', 'type': 'invests', 'tail': '€2.6 million'}</t>
+  </si>
+  <si>
+    <t>{'head': 'Back Market', 'type': 'receives', 'tail': '€110 million'}</t>
+  </si>
+  <si>
+    <t>{'head': 'Urban Innovation Fund', 'type': 'invests', 'tail': '€2.6 million'}</t>
+  </si>
+  <si>
+    <t>{'head': 'Goldman Sachs', 'type': 'invests', 'tail': '€110 million'}</t>
+  </si>
+  <si>
+    <t>{'head': '€2.6 million', 'type': '', 'tail': 'seed funding round'}</t>
+  </si>
+  <si>
+    <t>{'head': 'Aglaé Ventures', 'type': 'invests', 'tail': '€110 million'}</t>
+  </si>
   <si>
     <t>{'head': 'BetterUp', 'type': 'receives', 'tail': '$103 million'}</t>
   </si>
   <si>
+    <t>{'head': 'Eurazeo Growth', 'type': 'invests', 'tail': '€110 million'}</t>
+  </si>
+  <si>
     <t>{'head': '$103 million', 'type': '', 'tail': 'Series C.'}</t>
+  </si>
+  <si>
+    <t>{'head': '€110 million', 'type': '', 'tail': 'today'}</t>
+  </si>
+  <si>
+    <t>{'head': '€2.6 million', 'type': 'roundofinvestment', 'tail': 'seed funding'}</t>
+  </si>
+  <si>
+    <t>{'head': 'Urban Innovation Fund', 'type': 'leads', 'tail': '€2.6 million seed funding round'}</t>
+  </si>
+  <si>
+    <t>{'head': 'Lavrock Ventures', 'type': 'participates', 'tail': '€2.6 million seed funding round'}</t>
+  </si>
+  <si>
+    <t>{'head': 'Daphni', 'type': 'invests', 'tail': '€110 million'}</t>
+  </si>
+  <si>
+    <t>{'head': 'Tony Smurfit', 'type': 'participates', 'tail': '€2.6 million seed funding round'}</t>
+  </si>
+  <si>
+    <t>{'head': 'Peter Crowley', 'type': 'participates', 'tail': '€2.6 million seed funding round'}</t>
+  </si>
+  <si>
+    <t>{'head': 'NDRC', 'type': 'participates', 'tail': '€2.6 million seed funding round'}</t>
+  </si>
+  <si>
+    <t>{'head': 'Dogpatch Labs', 'type': 'operates', 'tail': 'NDRC'}</t>
+  </si>
+  <si>
+    <t>{'head': 'Founded', 'type': 'Dataships', 'tail': '2019'}</t>
   </si>
 </sst>
 </file>
@@ -377,34 +488,410 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:AB5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:28">
       <c r="A1" s="1">
         <v>0</v>
       </c>
       <c r="B1" s="1">
         <v>1</v>
       </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>27</v>
+      </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="2" spans="1:28">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>2</v>
+      </c>
+      <c r="P2">
+        <v>2</v>
+      </c>
+      <c r="Q2">
+        <v>2</v>
+      </c>
+      <c r="R2">
+        <v>2</v>
+      </c>
+      <c r="S2">
+        <v>2</v>
+      </c>
+      <c r="T2">
+        <v>4</v>
+      </c>
+      <c r="U2">
+        <v>4</v>
+      </c>
+      <c r="V2">
+        <v>4</v>
+      </c>
+      <c r="W2">
+        <v>4</v>
+      </c>
+      <c r="X2">
+        <v>4</v>
+      </c>
+      <c r="Y2">
+        <v>4</v>
+      </c>
+      <c r="Z2">
+        <v>4</v>
+      </c>
+      <c r="AA2">
+        <v>4</v>
+      </c>
+      <c r="AB2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>25</v>
+      </c>
+      <c r="R3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T3" t="s">
+        <v>14</v>
+      </c>
+      <c r="U3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V3" t="s">
+        <v>31</v>
+      </c>
+      <c r="W3" t="s">
+        <v>32</v>
+      </c>
+      <c r="X3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
       <c r="A4">
         <v>0</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="P4">
+        <v>2</v>
+      </c>
+      <c r="Q4">
+        <v>3</v>
+      </c>
+      <c r="R4">
+        <v>3</v>
+      </c>
+      <c r="S4">
+        <v>4</v>
+      </c>
+      <c r="T4">
+        <v>4</v>
+      </c>
+      <c r="U4">
+        <v>4</v>
+      </c>
+      <c r="V4">
+        <v>4</v>
+      </c>
+      <c r="W4">
+        <v>4</v>
+      </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:28">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" t="s">
+        <v>22</v>
+      </c>
+      <c r="P5" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R5" t="s">
+        <v>28</v>
+      </c>
+      <c r="S5" t="s">
+        <v>21</v>
+      </c>
+      <c r="T5" t="s">
+        <v>23</v>
+      </c>
+      <c r="U5" t="s">
+        <v>25</v>
+      </c>
+      <c r="V5" t="s">
+        <v>27</v>
+      </c>
+      <c r="W5" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/python/errors.xlsx
+++ b/python/errors.xlsx
@@ -14,117 +14,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
-  <si>
-    <t>{'head': 'iAdvize', 'type': 'receives', 'tail': '€14 million'}</t>
-  </si>
-  <si>
-    <t>{'head': 'ReceiptHero', 'type': 'receives', 'tail': '€2 million'}</t>
-  </si>
-  <si>
-    <t>{'head': 'Iris Capital', 'type': 'leads', 'tail': '€14 million funding round'}</t>
-  </si>
-  <si>
-    <t>{'head': 'Lifeline Ventures', 'type': 'invests', 'tail': '€2 million'}</t>
-  </si>
-  <si>
-    <t>{'head': 'BPI France', 'type': 'invests', 'tail': '€14 million'}</t>
-  </si>
-  <si>
-    <t>{'head': 'Superhero Capital', 'type': 'invests', 'tail': '€2 million'}</t>
-  </si>
-  <si>
-    <t>{'head': 'Alven Capital', 'type': 'invests', 'tail': '€14 million'}</t>
-  </si>
-  <si>
-    <t>{'head': 'Vidici Venture', 'type': 'invests', 'tail': '€2 million'}</t>
-  </si>
-  <si>
-    <t>{'head': '€14 million', 'type': 'roundofinvestment', 'tail': 'not specified'}</t>
-  </si>
-  <si>
-    <t>{'head': '€2 million', 'type': '', 'tail': 'seed funding'}</t>
-  </si>
-  <si>
-    <t>{'head': 'not specified', 'type': 'was received in', 'tail': 'not specified'}</t>
-  </si>
-  <si>
-    <t>{'head': 'Sophie Dingreville', 'type': 'joins', 'tail': 'iAdvize board'}</t>
-  </si>
-  <si>
-    <t>{'head': 'Iris Capital', 'type': 'invests', 'tail': '€14 million'}</t>
-  </si>
-  <si>
-    <t>{'head': '€2 million', 'type': 'roundofinvestment', 'tail': 'seed funding'}</t>
-  </si>
-  <si>
-    <t>{'head': 'Dataships', 'type': 'receives', 'tail': '€2.6 million'}</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>{'head': '€2.6 million', 'type': 'roundofinvestment', 'tail': 'seed funding'}</t>
   </si>
   <si>
     <t>{'head': 'Lavrock Ventures', 'type': 'invests', 'tail': '€2.6 million'}</t>
   </si>
   <si>
+    <t>{'head': 'Urban Innovation Fund', 'type': 'leads', 'tail': '€2.6 million seed funding round'}</t>
+  </si>
+  <si>
     <t>{'head': 'Tony Smurfit', 'type': 'invests', 'tail': '€2.6 million'}</t>
   </si>
   <si>
-    <t>{'head': 'ReceiptHero', 'type': 'founded', 'tail': 'late 2018'}</t>
+    <t>{'head': 'Lavrock Ventures', 'type': 'participates', 'tail': '€2.6 million seed funding round'}</t>
   </si>
   <si>
     <t>{'head': 'Peter Crowley', 'type': 'invests', 'tail': '€2.6 million'}</t>
   </si>
   <si>
-    <t>{'head': 'eTasku', 'type': '', 'tail': 'Accountor Group'}</t>
+    <t>{'head': 'Tony Smurfit', 'type': 'participates', 'tail': '€2.6 million seed funding round'}</t>
   </si>
   <si>
     <t>{'head': 'NDRC', 'type': 'invests', 'tail': '€2.6 million'}</t>
   </si>
   <si>
-    <t>{'head': 'Back Market', 'type': 'receives', 'tail': '€110 million'}</t>
+    <t>{'head': 'Peter Crowley', 'type': 'participates', 'tail': '€2.6 million seed funding round'}</t>
   </si>
   <si>
     <t>{'head': 'Urban Innovation Fund', 'type': 'invests', 'tail': '€2.6 million'}</t>
   </si>
   <si>
-    <t>{'head': 'Goldman Sachs', 'type': 'invests', 'tail': '€110 million'}</t>
+    <t>{'head': 'NDRC', 'type': 'participates', 'tail': '€2.6 million seed funding round'}</t>
   </si>
   <si>
     <t>{'head': '€2.6 million', 'type': '', 'tail': 'seed funding round'}</t>
-  </si>
-  <si>
-    <t>{'head': 'Aglaé Ventures', 'type': 'invests', 'tail': '€110 million'}</t>
-  </si>
-  <si>
-    <t>{'head': 'BetterUp', 'type': 'receives', 'tail': '$103 million'}</t>
-  </si>
-  <si>
-    <t>{'head': 'Eurazeo Growth', 'type': 'invests', 'tail': '€110 million'}</t>
-  </si>
-  <si>
-    <t>{'head': '$103 million', 'type': '', 'tail': 'Series C.'}</t>
-  </si>
-  <si>
-    <t>{'head': '€110 million', 'type': '', 'tail': 'today'}</t>
-  </si>
-  <si>
-    <t>{'head': '€2.6 million', 'type': 'roundofinvestment', 'tail': 'seed funding'}</t>
-  </si>
-  <si>
-    <t>{'head': 'Urban Innovation Fund', 'type': 'leads', 'tail': '€2.6 million seed funding round'}</t>
-  </si>
-  <si>
-    <t>{'head': 'Lavrock Ventures', 'type': 'participates', 'tail': '€2.6 million seed funding round'}</t>
-  </si>
-  <si>
-    <t>{'head': 'Daphni', 'type': 'invests', 'tail': '€110 million'}</t>
-  </si>
-  <si>
-    <t>{'head': 'Tony Smurfit', 'type': 'participates', 'tail': '€2.6 million seed funding round'}</t>
-  </si>
-  <si>
-    <t>{'head': 'Peter Crowley', 'type': 'participates', 'tail': '€2.6 million seed funding round'}</t>
-  </si>
-  <si>
-    <t>{'head': 'NDRC', 'type': 'participates', 'tail': '€2.6 million seed funding round'}</t>
   </si>
   <si>
     <t>{'head': 'Dogpatch Labs', 'type': 'operates', 'tail': 'NDRC'}</t>
@@ -488,13 +413,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:8">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -519,68 +444,8 @@
       <c r="H1" s="1">
         <v>7</v>
       </c>
-      <c r="I1" s="1">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>27</v>
-      </c>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>0</v>
       </c>
@@ -603,70 +468,10 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2">
-        <v>2</v>
-      </c>
-      <c r="P2">
-        <v>2</v>
-      </c>
-      <c r="Q2">
-        <v>2</v>
-      </c>
-      <c r="R2">
-        <v>2</v>
-      </c>
-      <c r="S2">
-        <v>2</v>
-      </c>
-      <c r="T2">
-        <v>4</v>
-      </c>
-      <c r="U2">
-        <v>4</v>
-      </c>
-      <c r="V2">
-        <v>4</v>
-      </c>
-      <c r="W2">
-        <v>4</v>
-      </c>
-      <c r="X2">
-        <v>4</v>
-      </c>
-      <c r="Y2">
-        <v>4</v>
-      </c>
-      <c r="Z2">
-        <v>4</v>
-      </c>
-      <c r="AA2">
-        <v>4</v>
-      </c>
-      <c r="AB2">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -686,73 +491,13 @@
         <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" t="s">
         <v>13</v>
       </c>
-      <c r="J3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O3" t="s">
-        <v>21</v>
-      </c>
-      <c r="P3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>25</v>
-      </c>
-      <c r="R3" t="s">
-        <v>27</v>
-      </c>
-      <c r="S3" t="s">
-        <v>29</v>
-      </c>
-      <c r="T3" t="s">
-        <v>14</v>
-      </c>
-      <c r="U3" t="s">
-        <v>30</v>
-      </c>
-      <c r="V3" t="s">
-        <v>31</v>
-      </c>
-      <c r="W3" t="s">
-        <v>32</v>
-      </c>
-      <c r="X3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>38</v>
-      </c>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>0</v>
       </c>
@@ -769,61 +514,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>2</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4">
-        <v>2</v>
-      </c>
-      <c r="M4">
-        <v>2</v>
-      </c>
-      <c r="N4">
-        <v>2</v>
-      </c>
-      <c r="O4">
-        <v>2</v>
-      </c>
-      <c r="P4">
-        <v>2</v>
-      </c>
-      <c r="Q4">
-        <v>3</v>
-      </c>
-      <c r="R4">
-        <v>3</v>
-      </c>
-      <c r="S4">
-        <v>4</v>
-      </c>
-      <c r="T4">
-        <v>4</v>
-      </c>
-      <c r="U4">
-        <v>4</v>
-      </c>
-      <c r="V4">
-        <v>4</v>
-      </c>
-      <c r="W4">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -840,58 +534,7 @@
         <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I5" t="s">
-        <v>6</v>
-      </c>
-      <c r="J5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" t="s">
-        <v>15</v>
-      </c>
-      <c r="L5" t="s">
-        <v>16</v>
-      </c>
-      <c r="M5" t="s">
-        <v>18</v>
-      </c>
-      <c r="N5" t="s">
-        <v>20</v>
-      </c>
-      <c r="O5" t="s">
-        <v>22</v>
-      </c>
-      <c r="P5" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>26</v>
-      </c>
-      <c r="R5" t="s">
-        <v>28</v>
-      </c>
-      <c r="S5" t="s">
-        <v>21</v>
-      </c>
-      <c r="T5" t="s">
-        <v>23</v>
-      </c>
-      <c r="U5" t="s">
-        <v>25</v>
-      </c>
-      <c r="V5" t="s">
-        <v>27</v>
-      </c>
-      <c r="W5" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/python/errors.xlsx
+++ b/python/errors.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>{'head': '€2.6 million', 'type': 'roundofinvestment', 'tail': 'seed funding'}</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>{'head': 'Founded', 'type': 'Dataships', 'tail': '2019'}</t>
+  </si>
+  <si>
+    <t>{'head': 'Founded', 'type': 'year', 'tail': '2019'}</t>
   </si>
 </sst>
 </file>
@@ -413,13 +416,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -444,8 +447,11 @@
       <c r="H1" s="1">
         <v>7</v>
       </c>
+      <c r="I1" s="1">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>0</v>
       </c>
@@ -470,8 +476,11 @@
       <c r="H2">
         <v>0</v>
       </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -496,8 +505,11 @@
       <c r="H3" t="s">
         <v>13</v>
       </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>0</v>
       </c>
@@ -517,7 +529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>1</v>
       </c>
